--- a/biology/Zoologie/Chiasmopes_hystrix/Chiasmopes_hystrix.xlsx
+++ b/biology/Zoologie/Chiasmopes_hystrix/Chiasmopes_hystrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmopes hystrix est une espèce d'araignées aranéomorphes de la famille des Pisauridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmopes hystrix est une espèce d'araignées aranéomorphes de la famille des Pisauridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Éthiopie et en Afrique du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Éthiopie et en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Maypacius hystrix par Berland en 1922. Elle est placée dans le genre Spencerella par Roewer en 1955[2] puis dans le genre Chiasmopes par Blandin en 1974[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Maypacius hystrix par Berland en 1922. Elle est placée dans le genre Spencerella par Roewer en 1955 puis dans le genre Chiasmopes par Blandin en 1974.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Berland, 1922 : « Araignées. » Voyage de M. le Baron de Rothschild en Éthiopie et en Afrique orientale anglaise (1904-1905): Résultats scientifiques: Animaux articulés, Paris, vol. 1, p. 43-90.</t>
         </is>
